--- a/strats-sources/v10/strat_v10.xlsx
+++ b/strats-sources/v10/strat_v10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\gitrepos\w40k-strat-card\strats-sources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\gitrepos\w40k-strat-card\strats-sources\v10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E846DD0-6AC5-44EC-8054-4137DC9CF9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48D9BF1-A0F1-432A-82C5-2380672A0D0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7335" yWindow="2310" windowWidth="19695" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="57">
   <si>
     <t>StratScreenshot</t>
   </si>
@@ -171,6 +171,42 @@
   </si>
   <si>
     <t>strats-sources\v10\assets</t>
+  </si>
+  <si>
+    <t>Space Marine</t>
+  </si>
+  <si>
+    <t>Seul la mort mets fin au Devoir</t>
+  </si>
+  <si>
+    <t>Honorez le Chapitre</t>
+  </si>
+  <si>
+    <t>Stratégie d'adaptation</t>
+  </si>
+  <si>
+    <t>Tactique d'escouade</t>
+  </si>
+  <si>
+    <t>Temp&amp;eagrave;te de Feu</t>
+  </si>
+  <si>
+    <t>SpaceMarine_01_SeuleLaMort.png</t>
+  </si>
+  <si>
+    <t>SpaceMarine_02_ArmureDuMepris.png</t>
+  </si>
+  <si>
+    <t>SpaceMarine_03_HonorezLeChapitre.png</t>
+  </si>
+  <si>
+    <t>SpaceMarine_04_StrategieAdaptation.png</t>
+  </si>
+  <si>
+    <t>SpaceMarine_05_TactiqueEscouade.png</t>
+  </si>
+  <si>
+    <t>SpaceMarine_06_TempeteDeFeu.png</t>
   </si>
 </sst>
 </file>
@@ -492,16 +528,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -592,14 +628,14 @@
         <v>11</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F18" si="0">_xlfn.CONCAT(D3 &amp; "/" &amp; E3)</f>
+        <f t="shared" ref="F3:F24" si="0">_xlfn.CONCAT(D3 &amp; "/" &amp; E3)</f>
         <v>2/11</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H18" si="1">(J3 &amp; "\" &amp; I3)</f>
+        <f t="shared" ref="H3:H24" si="1">(J3 &amp; "\" &amp; I3)</f>
         <v>strats-sources\v10\assets\01_Core_ContreOffensive.png</v>
       </c>
       <c r="I3" t="s">
@@ -1116,6 +1152,210 @@
         <v>33</v>
       </c>
       <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>45179</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>1/6</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>strats-sources\v10\assets\SpaceMarine_01_SeuleLaMort.png</v>
+      </c>
+      <c r="I19" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>45179</v>
+      </c>
+      <c r="B20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>2/6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>strats-sources\v10\assets\SpaceMarine_02_ArmureDuMepris.png</v>
+      </c>
+      <c r="I20" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>45179</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>3/6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>strats-sources\v10\assets\SpaceMarine_03_HonorezLeChapitre.png</v>
+      </c>
+      <c r="I21" t="s">
+        <v>53</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>45179</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>4/6</v>
+      </c>
+      <c r="G22" t="s">
+        <v>48</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="1"/>
+        <v>strats-sources\v10\assets\SpaceMarine_04_StrategieAdaptation.png</v>
+      </c>
+      <c r="I22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>45179</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>6</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>5/6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>49</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="1"/>
+        <v>strats-sources\v10\assets\SpaceMarine_05_TactiqueEscouade.png</v>
+      </c>
+      <c r="I23" t="s">
+        <v>55</v>
+      </c>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>45179</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>6/6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>50</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="1"/>
+        <v>strats-sources\v10\assets\SpaceMarine_06_TempeteDeFeu.png</v>
+      </c>
+      <c r="I24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" t="s">
         <v>44</v>
       </c>
     </row>
